--- a/experiment/quadratic/ex9.2.4/Experimentos_Generador/ex9.2.4(Quadratic)__Strong_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/quadratic/ex9.2.4/Experimentos_Generador/ex9.2.4(Quadratic)__Strong_Stationarygenerator_alpha_non_zero.xlsx
@@ -66,58 +66,58 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-x + 0.9845269164747507y_1 + 0.9895864129321414y_2</t>
-  </si>
-  <si>
-    <t>0.22077795225859775</t>
+    <t>-8.244548317260382 - x + 2.869513875221413y_1 + 2.2674670340484155y_2</t>
+  </si>
+  <si>
+    <t>8.244548317260382</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.6261647232860903</t>
-  </si>
-  <si>
-    <t>0.1539203524923809</t>
-  </si>
-  <si>
-    <t>0.7278266143520761</t>
-  </si>
-  <si>
-    <t>-0.6341700148372978y_1 + 0.246208352479233y_2</t>
-  </si>
-  <si>
-    <t>-0.719799847185921</t>
+    <t>0.34</t>
+  </si>
+  <si>
+    <t>7.4</t>
+  </si>
+  <si>
+    <t>7.800000000000001</t>
+  </si>
+  <si>
+    <t>-4.564925622911895 + 0.46504404182244063y_1 + 0.9932501978457225y_2</t>
+  </si>
+  <si>
+    <t>4.564925622911895</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.9520276521867266</t>
-  </si>
-  <si>
-    <t>0.0175812587115236</t>
-  </si>
-  <si>
-    <t>0.32767259612253286</t>
-  </si>
-  <si>
-    <t>0.6042254501506475y_1 - 0.5933483895765111y_2</t>
-  </si>
-  <si>
-    <t>-0.0878458865700309</t>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>9.7</t>
+  </si>
+  <si>
+    <t>1.4000000000000001</t>
+  </si>
+  <si>
+    <t>-0.32410942727809444 + 0.8128321196614839y_1 - 0.4489273765006888y_2</t>
+  </si>
+  <si>
+    <t>-0.32410942727809444</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.1729467021495048</t>
-  </si>
-  <si>
-    <t>0.5223494286442794</t>
-  </si>
-  <si>
-    <t>0.0903511899555811</t>
+    <t>0.38</t>
+  </si>
+  <si>
+    <t>6.800000000000001</t>
+  </si>
+  <si>
+    <t>0.8999999999999999</t>
   </si>
   <si>
     <t>x</t>
@@ -129,31 +129,31 @@
     <t>y_2</t>
   </si>
   <si>
-    <t>3.854930883109191</t>
-  </si>
-  <si>
-    <t>1.9722381242334144</t>
-  </si>
-  <si>
-    <t>2.1564436298587824</t>
+    <t>5.25</t>
+  </si>
+  <si>
+    <t>1.7000000000000002</t>
+  </si>
+  <si>
+    <t>3.8</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-2.0894655571011147</t>
-  </si>
-  <si>
-    <t>-1.751423614977918</t>
+    <t>-3.049617088901786</t>
+  </si>
+  <si>
+    <t>-1.7394014162046008</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-0.8692091654188043</t>
-  </si>
-  <si>
-    <t>-0.0031545798185498575</t>
+    <t>-32.742588296014226</t>
+  </si>
+  <si>
+    <t>-25.161076810857097</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -766,12 +766,12 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.44096499960278157</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>0.2967751973773296</v>
+        <v>1.2000000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/quadratic/ex9.2.4/Experimentos_Generador/ex9.2.4(Quadratic)__Strong_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/quadratic/ex9.2.4/Experimentos_Generador/ex9.2.4(Quadratic)__Strong_Stationarygenerator_alpha_non_zero.xlsx
@@ -66,58 +66,58 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-8.244548317260382 - x + 2.869513875221413y_1 + 2.2674670340484155y_2</t>
-  </si>
-  <si>
-    <t>8.244548317260382</t>
-  </si>
-  <si>
-    <t>J_0_L0_v</t>
-  </si>
-  <si>
-    <t>0.34</t>
-  </si>
-  <si>
-    <t>7.4</t>
-  </si>
-  <si>
-    <t>7.800000000000001</t>
-  </si>
-  <si>
-    <t>-4.564925622911895 + 0.46504404182244063y_1 + 0.9932501978457225y_2</t>
-  </si>
-  <si>
-    <t>4.564925622911895</t>
+    <t>-x + y_1 + y_2</t>
+  </si>
+  <si>
+    <t>5.300000000000001</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>0.63</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>8.7</t>
+  </si>
+  <si>
+    <t>4.558764391199015 - 0.9980655223593425y_1 + 0.059968806860381974y_2</t>
+  </si>
+  <si>
+    <t>-4.558764391199015</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.14</t>
-  </si>
-  <si>
-    <t>9.7</t>
-  </si>
-  <si>
-    <t>1.4000000000000001</t>
-  </si>
-  <si>
-    <t>-0.32410942727809444 + 0.8128321196614839y_1 - 0.4489273765006888y_2</t>
-  </si>
-  <si>
-    <t>-0.32410942727809444</t>
+    <t>0.94</t>
+  </si>
+  <si>
+    <t>6.6000000000000005</t>
+  </si>
+  <si>
+    <t>8.299999999999999</t>
+  </si>
+  <si>
+    <t>-1.9038877338877338 + 0.037422037422037424y_1 + 0.16008316008316004y_2</t>
+  </si>
+  <si>
+    <t>0.9338877338877337</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.38</t>
-  </si>
-  <si>
-    <t>6.800000000000001</t>
-  </si>
-  <si>
-    <t>0.8999999999999999</t>
+    <t>0.89</t>
+  </si>
+  <si>
+    <t>7.3</t>
+  </si>
+  <si>
+    <t>0.3</t>
   </si>
   <si>
     <t>x</t>
@@ -129,31 +129,31 @@
     <t>y_2</t>
   </si>
   <si>
-    <t>5.25</t>
-  </si>
-  <si>
-    <t>1.7000000000000002</t>
-  </si>
-  <si>
-    <t>3.8</t>
+    <t>4.25</t>
+  </si>
+  <si>
+    <t>4.85</t>
+  </si>
+  <si>
+    <t>4.7</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-3.049617088901786</t>
-  </si>
-  <si>
-    <t>-1.7394014162046008</t>
+    <t>-4.575124022287831</t>
+  </si>
+  <si>
+    <t>-1.8288446909227716</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-32.742588296014226</t>
-  </si>
-  <si>
-    <t>-25.161076810857097</t>
+    <t>-1.7959484256092113</t>
+  </si>
+  <si>
+    <t>-9.464401193885589</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -766,12 +766,12 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>1.77</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>1.2000000000000002</v>
+        <v>1.8599999999999999</v>
       </c>
     </row>
   </sheetData>
